--- a/data/pca/factorExposure/factorExposure_2018-02-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.005875022166838373</v>
+        <v>-0.01231877759364959</v>
       </c>
       <c r="C2">
-        <v>-0.02122828896549337</v>
+        <v>0.03029084826645179</v>
       </c>
       <c r="D2">
-        <v>-0.01973016074742872</v>
+        <v>0.02185281848553038</v>
       </c>
       <c r="E2">
-        <v>-0.01800538720118322</v>
+        <v>0.01546339292961813</v>
       </c>
       <c r="F2">
-        <v>-0.07882319530737036</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.01280387652956502</v>
+      </c>
+      <c r="G2">
+        <v>0.01168740766522806</v>
+      </c>
+      <c r="H2">
+        <v>-0.04130537712245611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09017005515494392</v>
+        <v>-0.05353125625369534</v>
       </c>
       <c r="C3">
-        <v>-0.03978483779294492</v>
+        <v>0.0828722306308235</v>
       </c>
       <c r="D3">
-        <v>0.006247341531736437</v>
+        <v>4.936297237665808e-05</v>
       </c>
       <c r="E3">
-        <v>-0.0904687430578026</v>
+        <v>0.05895106732665704</v>
       </c>
       <c r="F3">
-        <v>-0.3020951617802919</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.04446111292944915</v>
+      </c>
+      <c r="G3">
+        <v>0.02394251012062</v>
+      </c>
+      <c r="H3">
+        <v>-0.1175788866697831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04013849660045352</v>
+        <v>-0.02946649591611219</v>
       </c>
       <c r="C4">
-        <v>-0.001163281033573944</v>
+        <v>0.06740837635008883</v>
       </c>
       <c r="D4">
-        <v>-0.02746784657386272</v>
+        <v>0.01359222219711954</v>
       </c>
       <c r="E4">
-        <v>0.02660928852245102</v>
+        <v>-0.01040528290151425</v>
       </c>
       <c r="F4">
-        <v>-0.06629137807537142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.0238757753864175</v>
+      </c>
+      <c r="G4">
+        <v>0.04657415329564558</v>
+      </c>
+      <c r="H4">
+        <v>-0.05144989854290198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03542430464210466</v>
+        <v>-0.01571891370784629</v>
       </c>
       <c r="C6">
-        <v>-0.01128706958613744</v>
+        <v>0.06491451070147329</v>
       </c>
       <c r="D6">
-        <v>-0.04062491107223717</v>
+        <v>0.008198924198107044</v>
       </c>
       <c r="E6">
-        <v>0.02782916956191496</v>
+        <v>-0.01574798353906434</v>
       </c>
       <c r="F6">
-        <v>-0.03238526992356719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.0008655607075333704</v>
+      </c>
+      <c r="G6">
+        <v>0.03154487807191202</v>
+      </c>
+      <c r="H6">
+        <v>-0.04766046249433399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04002417517094028</v>
+        <v>-0.003803113897895328</v>
       </c>
       <c r="C7">
-        <v>0.03427380699675216</v>
+        <v>0.03803232128673877</v>
       </c>
       <c r="D7">
-        <v>-0.01669549885424491</v>
+        <v>0.008216707739673359</v>
       </c>
       <c r="E7">
-        <v>0.008168733851311271</v>
+        <v>-0.0227963731888218</v>
       </c>
       <c r="F7">
-        <v>-0.03275755412674591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04391661754275384</v>
+      </c>
+      <c r="G7">
+        <v>-0.001240847836369505</v>
+      </c>
+      <c r="H7">
+        <v>-0.02381557744266097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01042669986115921</v>
+        <v>0.004550383155354378</v>
       </c>
       <c r="C8">
-        <v>0.008578771246539274</v>
+        <v>0.005933657882432389</v>
       </c>
       <c r="D8">
-        <v>-0.02938309293499982</v>
+        <v>0.001205410905502535</v>
       </c>
       <c r="E8">
-        <v>0.02061509705897358</v>
+        <v>-0.0006335048774934482</v>
       </c>
       <c r="F8">
-        <v>-0.06430948291861055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02095759230743384</v>
+      </c>
+      <c r="G8">
+        <v>0.01694545084150687</v>
+      </c>
+      <c r="H8">
+        <v>-0.02413947592606251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03133065703703706</v>
+        <v>-0.01602986934990717</v>
       </c>
       <c r="C9">
-        <v>0.0009208522589492311</v>
+        <v>0.04967511877989771</v>
       </c>
       <c r="D9">
-        <v>-0.02509951693842193</v>
+        <v>0.009070250383898306</v>
       </c>
       <c r="E9">
-        <v>-0.002243994388741673</v>
+        <v>-0.007726095818211263</v>
       </c>
       <c r="F9">
-        <v>-0.07139709482229004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01621106046427229</v>
+      </c>
+      <c r="G9">
+        <v>0.01762644524712341</v>
+      </c>
+      <c r="H9">
+        <v>-0.04919617660457085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04839303704356215</v>
+        <v>-0.1463107605997808</v>
       </c>
       <c r="C10">
-        <v>-0.01680610882554754</v>
+        <v>-0.1358363510494795</v>
       </c>
       <c r="D10">
-        <v>0.1417591978095323</v>
+        <v>-0.01509090237128202</v>
       </c>
       <c r="E10">
-        <v>-0.07730996868926045</v>
+        <v>0.02998550296354023</v>
       </c>
       <c r="F10">
-        <v>-0.02609830250206836</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.02246927410204539</v>
+      </c>
+      <c r="G10">
+        <v>-0.02787612151850611</v>
+      </c>
+      <c r="H10">
+        <v>0.0060540016697494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02526684337132286</v>
+        <v>-0.01110342317287146</v>
       </c>
       <c r="C11">
-        <v>-0.01410263284097668</v>
+        <v>0.04928168851537032</v>
       </c>
       <c r="D11">
-        <v>-0.0376945382178558</v>
+        <v>-0.004254175531934069</v>
       </c>
       <c r="E11">
-        <v>0.02300740480989029</v>
+        <v>-0.01089010930710314</v>
       </c>
       <c r="F11">
-        <v>-0.02657776515891808</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.003459708765773665</v>
+      </c>
+      <c r="G11">
+        <v>0.01480416112939506</v>
+      </c>
+      <c r="H11">
+        <v>-0.04589752374701697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03803219849229228</v>
+        <v>-0.01631022660541603</v>
       </c>
       <c r="C12">
-        <v>-0.01379002641203342</v>
+        <v>0.04803043523595846</v>
       </c>
       <c r="D12">
-        <v>-0.03326294991293078</v>
+        <v>-0.0005389895369317375</v>
       </c>
       <c r="E12">
-        <v>0.03517909795607705</v>
+        <v>-0.02047596202046444</v>
       </c>
       <c r="F12">
-        <v>-0.00235489207411592</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.004435689563130472</v>
+      </c>
+      <c r="G12">
+        <v>0.009610883196278645</v>
+      </c>
+      <c r="H12">
+        <v>-0.01897692361386388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.006748256658066475</v>
+        <v>-0.01267493492321844</v>
       </c>
       <c r="C13">
-        <v>-0.01624376940779068</v>
+        <v>0.02728273280442147</v>
       </c>
       <c r="D13">
-        <v>-0.004718452124988627</v>
+        <v>0.01874069664278265</v>
       </c>
       <c r="E13">
-        <v>-0.005114034030182664</v>
+        <v>0.01358779265052572</v>
       </c>
       <c r="F13">
-        <v>-0.06777603897133927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0003856442570379036</v>
+      </c>
+      <c r="G13">
+        <v>0.03069101719646561</v>
+      </c>
+      <c r="H13">
+        <v>-0.06053694879778164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02400605512802525</v>
+        <v>-0.00614843809440553</v>
       </c>
       <c r="C14">
-        <v>0.007376818233253121</v>
+        <v>0.02195718389810709</v>
       </c>
       <c r="D14">
-        <v>-0.009684635579089385</v>
+        <v>0.004567488607891319</v>
       </c>
       <c r="E14">
-        <v>0.0100853352407123</v>
+        <v>-0.009760590135207555</v>
       </c>
       <c r="F14">
-        <v>-0.04807542898481156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02222782249777295</v>
+      </c>
+      <c r="G14">
+        <v>0.01305619610156269</v>
+      </c>
+      <c r="H14">
+        <v>-0.01798672599180514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02838656753906369</v>
+        <v>-0.01376868155464264</v>
       </c>
       <c r="C16">
-        <v>-0.01374423922609576</v>
+        <v>0.0436304531355266</v>
       </c>
       <c r="D16">
-        <v>-0.04141260759230015</v>
+        <v>-0.004407615891575446</v>
       </c>
       <c r="E16">
-        <v>0.02231824356688471</v>
+        <v>-0.01002511266258577</v>
       </c>
       <c r="F16">
-        <v>-0.03548852647737939</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.002212254212716323</v>
+      </c>
+      <c r="G16">
+        <v>0.01424620854158886</v>
+      </c>
+      <c r="H16">
+        <v>-0.03402100709888153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03348012587035772</v>
+        <v>-0.01391522921751093</v>
       </c>
       <c r="C19">
-        <v>-0.009258639399669909</v>
+        <v>0.04667617545684538</v>
       </c>
       <c r="D19">
-        <v>-0.02859041379661927</v>
+        <v>0.007603322844301923</v>
       </c>
       <c r="E19">
-        <v>0.0323186862607647</v>
+        <v>0.01413455275139873</v>
       </c>
       <c r="F19">
-        <v>-0.08716959237498004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02721252419755157</v>
+      </c>
+      <c r="G19">
+        <v>0.03768144838086676</v>
+      </c>
+      <c r="H19">
+        <v>-0.05497367059528867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.000330734183616843</v>
+        <v>-0.0006107931562563659</v>
       </c>
       <c r="C20">
-        <v>0.01241087675122639</v>
+        <v>0.02300506498861532</v>
       </c>
       <c r="D20">
-        <v>0.004368213754153315</v>
+        <v>0.0088258697048391</v>
       </c>
       <c r="E20">
-        <v>0.003498990292202778</v>
+        <v>0.006981312042012968</v>
       </c>
       <c r="F20">
-        <v>-0.04911058871313131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01881966557734353</v>
+      </c>
+      <c r="G20">
+        <v>0.02220560106545192</v>
+      </c>
+      <c r="H20">
+        <v>-0.02920678423055566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02597813425524053</v>
+        <v>-0.00530498729418182</v>
       </c>
       <c r="C21">
-        <v>0.00932021683029954</v>
+        <v>0.02351625829281632</v>
       </c>
       <c r="D21">
-        <v>-0.02350184247426992</v>
+        <v>0.01128794590512203</v>
       </c>
       <c r="E21">
-        <v>0.005956657912681541</v>
+        <v>0.006998794576614218</v>
       </c>
       <c r="F21">
-        <v>-0.0310464413172403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02714418306241696</v>
+      </c>
+      <c r="G21">
+        <v>0.00708333067949485</v>
+      </c>
+      <c r="H21">
+        <v>-0.03484307492280174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02136300846706369</v>
+        <v>-0.0070504840717842</v>
       </c>
       <c r="C24">
-        <v>-0.0117330780016123</v>
+        <v>0.04166357729696727</v>
       </c>
       <c r="D24">
-        <v>-0.02901016744787738</v>
+        <v>0.001136840115880988</v>
       </c>
       <c r="E24">
-        <v>0.02322315305267555</v>
+        <v>-0.0144611490605744</v>
       </c>
       <c r="F24">
-        <v>-0.02373999247652879</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.003599443364007879</v>
+      </c>
+      <c r="G24">
+        <v>0.0119643403294933</v>
+      </c>
+      <c r="H24">
+        <v>-0.03778157919211363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03062370941884723</v>
+        <v>-0.02166984368897285</v>
       </c>
       <c r="C25">
-        <v>-0.01294626111539529</v>
+        <v>0.05149345039864882</v>
       </c>
       <c r="D25">
-        <v>-0.03320599532825456</v>
+        <v>0.003444545924453211</v>
       </c>
       <c r="E25">
-        <v>0.01779048151533852</v>
+        <v>-0.01877102092637453</v>
       </c>
       <c r="F25">
-        <v>-0.03511911771902058</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.002226834706811415</v>
+      </c>
+      <c r="G25">
+        <v>0.01937105321060184</v>
+      </c>
+      <c r="H25">
+        <v>-0.03601732427816584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01221482396888437</v>
+        <v>-0.004703904347176675</v>
       </c>
       <c r="C26">
-        <v>-0.0004299598031399825</v>
+        <v>0.007991159535626071</v>
       </c>
       <c r="D26">
-        <v>-0.01304162246265906</v>
+        <v>0.02196085312441138</v>
       </c>
       <c r="E26">
-        <v>-0.01737860134151315</v>
+        <v>-0.002954246627991809</v>
       </c>
       <c r="F26">
-        <v>-0.04773451418751096</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01028993562348871</v>
+      </c>
+      <c r="G26">
+        <v>0.0006873447350079927</v>
+      </c>
+      <c r="H26">
+        <v>-0.01605956900926709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.02026397562140617</v>
+        <v>-0.00578749694747446</v>
       </c>
       <c r="C27">
-        <v>-0.0002486785152338115</v>
+        <v>0.006167997256320362</v>
       </c>
       <c r="D27">
-        <v>0.003535446235809426</v>
+        <v>-0.001953673508957216</v>
       </c>
       <c r="E27">
-        <v>0.02836903765545712</v>
+        <v>-0.002928267325418007</v>
       </c>
       <c r="F27">
-        <v>-0.01795829273042455</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.01153175228221964</v>
+      </c>
+      <c r="G27">
+        <v>0.008369480601160842</v>
+      </c>
+      <c r="H27">
+        <v>0.006226331676278674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09132809018203979</v>
+        <v>-0.1982870035697372</v>
       </c>
       <c r="C28">
-        <v>-0.02892941412373128</v>
+        <v>-0.1716934368603609</v>
       </c>
       <c r="D28">
-        <v>0.2067667581415188</v>
+        <v>-0.007220622010510095</v>
       </c>
       <c r="E28">
-        <v>-0.1118237704327071</v>
+        <v>0.02189946226880055</v>
       </c>
       <c r="F28">
-        <v>-0.009137838314139677</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03433938078896807</v>
+      </c>
+      <c r="G28">
+        <v>-0.03110546959544792</v>
+      </c>
+      <c r="H28">
+        <v>0.004602995369803194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0256943567064734</v>
+        <v>-0.01047661770917917</v>
       </c>
       <c r="C29">
-        <v>0.003469763714336058</v>
+        <v>0.0208935232794916</v>
       </c>
       <c r="D29">
-        <v>-0.00874835336150079</v>
+        <v>0.003647286633437144</v>
       </c>
       <c r="E29">
-        <v>0.01254690323154207</v>
+        <v>-0.007864733399319115</v>
       </c>
       <c r="F29">
-        <v>-0.04491257203425853</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02165000816722134</v>
+      </c>
+      <c r="G29">
+        <v>0.01195372743925389</v>
+      </c>
+      <c r="H29">
+        <v>-0.007894209801172249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03052360743540904</v>
+        <v>-0.01777489146783367</v>
       </c>
       <c r="C30">
-        <v>-0.05577643763816095</v>
+        <v>0.08688701759126451</v>
       </c>
       <c r="D30">
-        <v>-0.05123478655506151</v>
+        <v>0.0169599364727386</v>
       </c>
       <c r="E30">
-        <v>0.01160915382517026</v>
+        <v>0.005026115061843211</v>
       </c>
       <c r="F30">
-        <v>-0.08335732123381018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02343770950984755</v>
+      </c>
+      <c r="G30">
+        <v>0.04263906626416508</v>
+      </c>
+      <c r="H30">
+        <v>-0.06776360751305202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04459214790644765</v>
+        <v>-0.03080330653983088</v>
       </c>
       <c r="C31">
-        <v>-0.01662468962843476</v>
+        <v>0.03414303887341985</v>
       </c>
       <c r="D31">
-        <v>-0.01928213482253617</v>
+        <v>-0.002241260224135476</v>
       </c>
       <c r="E31">
-        <v>0.02418978038756383</v>
+        <v>-0.01426315989868114</v>
       </c>
       <c r="F31">
-        <v>-0.03809477970492286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01018321040389869</v>
+      </c>
+      <c r="G31">
+        <v>0.001199836945346741</v>
+      </c>
+      <c r="H31">
+        <v>0.00126847807007319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02114943113462266</v>
+        <v>0.002647372527277079</v>
       </c>
       <c r="C32">
-        <v>0.02346773133079275</v>
+        <v>0.01331698688744757</v>
       </c>
       <c r="D32">
-        <v>-0.04163081415409823</v>
+        <v>-0.008642445722244482</v>
       </c>
       <c r="E32">
-        <v>0.03610501542425266</v>
+        <v>-0.0002885904540415715</v>
       </c>
       <c r="F32">
-        <v>-0.05181439245049207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04335054301892502</v>
+      </c>
+      <c r="G32">
+        <v>0.04089787606276162</v>
+      </c>
+      <c r="H32">
+        <v>-0.03854583544158552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02782540724385702</v>
+        <v>-0.01466664434118243</v>
       </c>
       <c r="C33">
-        <v>-0.03144848602391512</v>
+        <v>0.04873737353761239</v>
       </c>
       <c r="D33">
-        <v>-0.04379533159088533</v>
+        <v>0.007293812053088422</v>
       </c>
       <c r="E33">
-        <v>0.001453540762995793</v>
+        <v>0.009319153915386907</v>
       </c>
       <c r="F33">
-        <v>-0.0608489272427931</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.00546354159277651</v>
+      </c>
+      <c r="G33">
+        <v>0.002359715765524152</v>
+      </c>
+      <c r="H33">
+        <v>-0.04966598648671972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03057029518936973</v>
+        <v>-0.02220295349532593</v>
       </c>
       <c r="C34">
-        <v>-0.005856691402282683</v>
+        <v>0.05151547350491183</v>
       </c>
       <c r="D34">
-        <v>-0.03971516987137834</v>
+        <v>-0.01295821091687559</v>
       </c>
       <c r="E34">
-        <v>0.03296966985121388</v>
+        <v>-0.02623286389537257</v>
       </c>
       <c r="F34">
-        <v>-0.03000796604712697</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.005358305330931603</v>
+      </c>
+      <c r="G34">
+        <v>0.0166753430612724</v>
+      </c>
+      <c r="H34">
+        <v>-0.03768163803766607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.018056911320976</v>
+        <v>-0.011222779509797</v>
       </c>
       <c r="C36">
-        <v>0.005086693488136801</v>
+        <v>0.00616511165365253</v>
       </c>
       <c r="D36">
-        <v>-0.0009933719372346704</v>
+        <v>0.008792021901475683</v>
       </c>
       <c r="E36">
-        <v>0.00414807343766402</v>
+        <v>-0.00409594445554313</v>
       </c>
       <c r="F36">
-        <v>-0.02850360505439012</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01352048652948989</v>
+      </c>
+      <c r="G36">
+        <v>0.0006219791696082555</v>
+      </c>
+      <c r="H36">
+        <v>-0.01084966002005465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01188080591651495</v>
+        <v>-0.02457256532408562</v>
       </c>
       <c r="C38">
-        <v>-0.008479306593354486</v>
+        <v>0.02117151152337302</v>
       </c>
       <c r="D38">
-        <v>-0.0009830814493758211</v>
+        <v>-0.01249489965671288</v>
       </c>
       <c r="E38">
-        <v>-0.02683425710381444</v>
+        <v>-0.007312953165441888</v>
       </c>
       <c r="F38">
-        <v>-0.04223127775281402</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.0003361762374832742</v>
+      </c>
+      <c r="G38">
+        <v>0.010136528992062</v>
+      </c>
+      <c r="H38">
+        <v>-0.03057335129461882</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02007051515635416</v>
+        <v>0.002386980067275447</v>
       </c>
       <c r="C39">
-        <v>-0.008908391086661631</v>
+        <v>0.08653253948542429</v>
       </c>
       <c r="D39">
-        <v>-0.05436759746447468</v>
+        <v>0.003235394797761259</v>
       </c>
       <c r="E39">
-        <v>0.01862934634028206</v>
+        <v>-0.01215356692108241</v>
       </c>
       <c r="F39">
-        <v>-0.05670686003901419</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.008538717899972183</v>
+      </c>
+      <c r="G39">
+        <v>0.02328712321194157</v>
+      </c>
+      <c r="H39">
+        <v>-0.07401618412934942</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01354686746109445</v>
+        <v>-0.01917973453999622</v>
       </c>
       <c r="C40">
-        <v>-0.03794486485467372</v>
+        <v>0.03027019391666253</v>
       </c>
       <c r="D40">
-        <v>-0.01863483390309785</v>
+        <v>0.005758931170749881</v>
       </c>
       <c r="E40">
-        <v>0.02687512019094134</v>
+        <v>-6.968560721248489e-05</v>
       </c>
       <c r="F40">
-        <v>-0.03367309641093753</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02131341887398217</v>
+      </c>
+      <c r="G40">
+        <v>0.02919985529014831</v>
+      </c>
+      <c r="H40">
+        <v>-0.04058090571168872</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009669272785629629</v>
+        <v>-0.01166778817161406</v>
       </c>
       <c r="C41">
-        <v>-0.001112348200899174</v>
+        <v>-0.006714045420914343</v>
       </c>
       <c r="D41">
-        <v>-0.001753690688465917</v>
+        <v>0.002693748173766057</v>
       </c>
       <c r="E41">
-        <v>-0.01321927952832376</v>
+        <v>-0.003905063438856365</v>
       </c>
       <c r="F41">
-        <v>-0.001607003257904477</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.003940680079308205</v>
+      </c>
+      <c r="G41">
+        <v>-0.01177077497759849</v>
+      </c>
+      <c r="H41">
+        <v>0.004973357705077712</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2210402467968366</v>
+        <v>-0.06626727411005237</v>
       </c>
       <c r="C42">
-        <v>-0.2351025533314244</v>
+        <v>0.2151704794001001</v>
       </c>
       <c r="D42">
-        <v>-0.4257653628769268</v>
+        <v>0.1054799974204405</v>
       </c>
       <c r="E42">
-        <v>-0.7129039520290669</v>
+        <v>0.1358662454910487</v>
       </c>
       <c r="F42">
-        <v>0.392992847727954</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.2323038063151428</v>
+      </c>
+      <c r="G42">
+        <v>-0.9167380890777316</v>
+      </c>
+      <c r="H42">
+        <v>-0.07671210882513058</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01068188305859975</v>
+        <v>-0.01282440031725705</v>
       </c>
       <c r="C43">
-        <v>-0.003608467097001194</v>
+        <v>-0.002813336898878816</v>
       </c>
       <c r="D43">
-        <v>-0.005305873844824425</v>
+        <v>0.002941941717201487</v>
       </c>
       <c r="E43">
-        <v>-0.002097064252818981</v>
+        <v>0.001626084236181583</v>
       </c>
       <c r="F43">
-        <v>-0.02749973879121915</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004219668817195147</v>
+      </c>
+      <c r="G43">
+        <v>-0.005630283641738081</v>
+      </c>
+      <c r="H43">
+        <v>-0.003866692265042227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02284280657380564</v>
+        <v>-0.004433006366419984</v>
       </c>
       <c r="C44">
-        <v>0.01202670223732672</v>
+        <v>0.04040541589019679</v>
       </c>
       <c r="D44">
-        <v>-0.02393014534395605</v>
+        <v>0.00129849743293227</v>
       </c>
       <c r="E44">
-        <v>-0.02271692051968664</v>
+        <v>0.005150764260267</v>
       </c>
       <c r="F44">
-        <v>-0.08485706301780915</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02658407657541809</v>
+      </c>
+      <c r="G44">
+        <v>2.082079271065713e-05</v>
+      </c>
+      <c r="H44">
+        <v>-0.06180845318392651</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01734509982669936</v>
+        <v>-0.003421331373089876</v>
       </c>
       <c r="C46">
-        <v>-0.003563431791197654</v>
+        <v>0.01449799137541219</v>
       </c>
       <c r="D46">
-        <v>-0.03626391482112694</v>
+        <v>0.008987881024445327</v>
       </c>
       <c r="E46">
-        <v>0.02182946250400131</v>
+        <v>-0.001081501699580878</v>
       </c>
       <c r="F46">
-        <v>-0.07243872503111631</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01141078599734402</v>
+      </c>
+      <c r="G46">
+        <v>0.009180674688117786</v>
+      </c>
+      <c r="H46">
+        <v>-0.0116256206819843</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07523229366729803</v>
+        <v>-0.05045810329035061</v>
       </c>
       <c r="C47">
-        <v>-0.03621827472705436</v>
+        <v>0.07043181919270296</v>
       </c>
       <c r="D47">
-        <v>-0.01535053514589052</v>
+        <v>-0.01477306663296286</v>
       </c>
       <c r="E47">
-        <v>0.03606109623586611</v>
+        <v>-0.01826284160481192</v>
       </c>
       <c r="F47">
-        <v>-0.009833899101021858</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.006433453035755213</v>
+      </c>
+      <c r="G47">
+        <v>0.0007901740610887892</v>
+      </c>
+      <c r="H47">
+        <v>0.03697464529196979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01974377287278821</v>
+        <v>-0.01189269460269885</v>
       </c>
       <c r="C48">
-        <v>-0.006407021469977422</v>
+        <v>0.01695646429542304</v>
       </c>
       <c r="D48">
-        <v>-0.01329600179628279</v>
+        <v>-0.001319848876946339</v>
       </c>
       <c r="E48">
-        <v>0.006170110989798154</v>
+        <v>-0.004641081716431203</v>
       </c>
       <c r="F48">
-        <v>-0.02941278437173319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.006419658583793574</v>
+      </c>
+      <c r="G48">
+        <v>0.004362347817592479</v>
+      </c>
+      <c r="H48">
+        <v>-0.01656397496447118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0824640355860408</v>
+        <v>-0.05300301077573025</v>
       </c>
       <c r="C50">
-        <v>-0.01049320492924608</v>
+        <v>0.06384112230221982</v>
       </c>
       <c r="D50">
-        <v>-0.03025623732220163</v>
+        <v>-0.01264421359633961</v>
       </c>
       <c r="E50">
-        <v>0.02514674664930215</v>
+        <v>-0.01886997059885929</v>
       </c>
       <c r="F50">
-        <v>-0.02222258200432869</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02782107910604887</v>
+      </c>
+      <c r="G50">
+        <v>-0.007463843597423938</v>
+      </c>
+      <c r="H50">
+        <v>0.02416119769811886</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01761587287008325</v>
+        <v>-0.01348611566845729</v>
       </c>
       <c r="C51">
-        <v>0.002915822264336853</v>
+        <v>0.01755470859302497</v>
       </c>
       <c r="D51">
-        <v>0.01041063204728104</v>
+        <v>0.003764645292048857</v>
       </c>
       <c r="E51">
-        <v>-0.01420126902984126</v>
+        <v>-0.008446868920692113</v>
       </c>
       <c r="F51">
-        <v>-0.09149871520208697</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01449072765694023</v>
+      </c>
+      <c r="G51">
+        <v>0.01024484189263434</v>
+      </c>
+      <c r="H51">
+        <v>-0.04541427357026461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.0898378547926945</v>
+        <v>-0.06602573921814198</v>
       </c>
       <c r="C53">
-        <v>-0.03787947367475</v>
+        <v>0.1026944645010329</v>
       </c>
       <c r="D53">
-        <v>-0.04437367677207687</v>
+        <v>-0.01826367596788058</v>
       </c>
       <c r="E53">
-        <v>0.06447936445678856</v>
+        <v>-0.04559718455671977</v>
       </c>
       <c r="F53">
-        <v>0.02628280529490584</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.004409204264549626</v>
+      </c>
+      <c r="G53">
+        <v>0.001306035225754235</v>
+      </c>
+      <c r="H53">
+        <v>0.04103760634769415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02790866310077282</v>
+        <v>-0.02173903735435209</v>
       </c>
       <c r="C54">
-        <v>0.002811328772769575</v>
+        <v>0.002985117727552777</v>
       </c>
       <c r="D54">
-        <v>0.009315064365567716</v>
+        <v>-0.0065696473182246</v>
       </c>
       <c r="E54">
-        <v>0.01259343517580579</v>
+        <v>0.0005283768055684439</v>
       </c>
       <c r="F54">
-        <v>-0.02904618200203603</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02254780032234452</v>
+      </c>
+      <c r="G54">
+        <v>0.007178031114867446</v>
+      </c>
+      <c r="H54">
+        <v>-0.004913297807188186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07834351060935406</v>
+        <v>-0.04605570898358429</v>
       </c>
       <c r="C55">
-        <v>-0.03084356730380356</v>
+        <v>0.09160206962328382</v>
       </c>
       <c r="D55">
-        <v>-0.05282702287494451</v>
+        <v>-0.01499124446071257</v>
       </c>
       <c r="E55">
-        <v>0.04575990252314523</v>
+        <v>-0.03352953980717177</v>
       </c>
       <c r="F55">
-        <v>0.02211427153369659</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.00225295757690382</v>
+      </c>
+      <c r="G55">
+        <v>-0.004200818177012011</v>
+      </c>
+      <c r="H55">
+        <v>0.04002577903994404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1257491512742994</v>
+        <v>-0.09111130348044001</v>
       </c>
       <c r="C56">
-        <v>-0.0642440692018256</v>
+        <v>0.1342071732866063</v>
       </c>
       <c r="D56">
-        <v>-0.0337570348004987</v>
+        <v>-0.02955155664815444</v>
       </c>
       <c r="E56">
-        <v>0.08758473414476411</v>
+        <v>-0.04478029264996174</v>
       </c>
       <c r="F56">
-        <v>0.05399542484499453</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.009617746791657628</v>
+      </c>
+      <c r="G56">
+        <v>0.00956479620562934</v>
+      </c>
+      <c r="H56">
+        <v>0.08166676375727183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03411516019960902</v>
+        <v>-0.01971177117178</v>
       </c>
       <c r="C57">
-        <v>-0.01752883040369299</v>
+        <v>0.03113145331290695</v>
       </c>
       <c r="D57">
-        <v>-0.02257815503793836</v>
+        <v>0.02028730169579411</v>
       </c>
       <c r="E57">
-        <v>-0.04887436724999041</v>
+        <v>0.02747974914633295</v>
       </c>
       <c r="F57">
-        <v>-0.04841145123055122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.02090890721646825</v>
+      </c>
+      <c r="G57">
+        <v>0.005802259561330572</v>
+      </c>
+      <c r="H57">
+        <v>-0.06263862538700737</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1464702085676322</v>
+        <v>-0.06326334440150591</v>
       </c>
       <c r="C58">
-        <v>-0.1926642709189764</v>
+        <v>0.2374692080483442</v>
       </c>
       <c r="D58">
-        <v>-0.1643363400273873</v>
+        <v>-0.007951382207218928</v>
       </c>
       <c r="E58">
-        <v>-0.1170488892625782</v>
+        <v>0.916780121293664</v>
       </c>
       <c r="F58">
-        <v>-0.5937012549602468</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2065380153790875</v>
+      </c>
+      <c r="G58">
+        <v>0.1362711290362725</v>
+      </c>
+      <c r="H58">
+        <v>0.1023461122139363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0750995119073386</v>
+        <v>-0.2154461767290183</v>
       </c>
       <c r="C59">
-        <v>-0.04910095415685017</v>
+        <v>-0.1546698872908477</v>
       </c>
       <c r="D59">
-        <v>0.1761556015315749</v>
+        <v>-0.01617661464902743</v>
       </c>
       <c r="E59">
-        <v>-0.06700857077693456</v>
+        <v>0.02522975654973706</v>
       </c>
       <c r="F59">
-        <v>-0.05048911697804652</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.008667597208391617</v>
+      </c>
+      <c r="G59">
+        <v>0.003662861634049381</v>
+      </c>
+      <c r="H59">
+        <v>-0.01559694304663479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1423338933850912</v>
+        <v>-0.2255344617069861</v>
       </c>
       <c r="C60">
-        <v>-0.1081941132974675</v>
+        <v>0.1054541158459145</v>
       </c>
       <c r="D60">
-        <v>-0.0009748212681193404</v>
+        <v>-0.01819918014241043</v>
       </c>
       <c r="E60">
-        <v>-0.03796447019031284</v>
+        <v>-0.03639212890787848</v>
       </c>
       <c r="F60">
-        <v>-0.1543275235789611</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.09674284237179233</v>
+      </c>
+      <c r="G60">
+        <v>0.1227904625427963</v>
+      </c>
+      <c r="H60">
+        <v>-0.3784228732332728</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02180381325666505</v>
+        <v>-0.008568278564781501</v>
       </c>
       <c r="C61">
-        <v>-0.008936083843319445</v>
+        <v>0.06619617512069402</v>
       </c>
       <c r="D61">
-        <v>-0.04117713005666108</v>
+        <v>-0.002607022472662314</v>
       </c>
       <c r="E61">
-        <v>0.01289321906927593</v>
+        <v>-0.01313077336748951</v>
       </c>
       <c r="F61">
-        <v>-0.02653459428115835</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.0005939818209384975</v>
+      </c>
+      <c r="G61">
+        <v>0.02411363144453416</v>
+      </c>
+      <c r="H61">
+        <v>-0.05457139085389781</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01504795223991743</v>
+        <v>-0.004660291552971135</v>
       </c>
       <c r="C63">
-        <v>-0.0006914488721346152</v>
+        <v>0.02125418737526599</v>
       </c>
       <c r="D63">
-        <v>-0.01690779784998916</v>
+        <v>0.004986896614295631</v>
       </c>
       <c r="E63">
-        <v>0.003938735907881395</v>
+        <v>-0.01724952452346211</v>
       </c>
       <c r="F63">
-        <v>-0.005291729692867641</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.008862409447361058</v>
+      </c>
+      <c r="G63">
+        <v>0.005112274636115231</v>
+      </c>
+      <c r="H63">
+        <v>-0.01440114632530557</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04194974849140239</v>
+        <v>-0.03232791355536897</v>
       </c>
       <c r="C64">
-        <v>-0.004387921380256253</v>
+        <v>0.04669324899705607</v>
       </c>
       <c r="D64">
-        <v>-0.02799655288999539</v>
+        <v>-0.002701176662527441</v>
       </c>
       <c r="E64">
-        <v>0.02308528658217692</v>
+        <v>-0.02528516022533413</v>
       </c>
       <c r="F64">
-        <v>-0.02673727755587418</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.002148370648767229</v>
+      </c>
+      <c r="G64">
+        <v>-0.002269252415458788</v>
+      </c>
+      <c r="H64">
+        <v>-0.03198232890759843</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03950285479599374</v>
+        <v>-0.03703365573949296</v>
       </c>
       <c r="C65">
-        <v>-0.01242704288644424</v>
+        <v>0.08616854604042583</v>
       </c>
       <c r="D65">
-        <v>-0.04162639150454425</v>
+        <v>0.005429408850208761</v>
       </c>
       <c r="E65">
-        <v>0.03376019202762746</v>
+        <v>-0.03547127929727383</v>
       </c>
       <c r="F65">
-        <v>-0.02654954561490394</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01171547747256681</v>
+      </c>
+      <c r="G65">
+        <v>0.04245628401570445</v>
+      </c>
+      <c r="H65">
+        <v>-0.05711975091091482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03121775907201838</v>
+        <v>-0.005665369659971015</v>
       </c>
       <c r="C66">
-        <v>-0.02338590564041027</v>
+        <v>0.1181715966713626</v>
       </c>
       <c r="D66">
-        <v>-0.05981572302253732</v>
+        <v>-0.001889393124325461</v>
       </c>
       <c r="E66">
-        <v>0.05236339784055143</v>
+        <v>-0.01631474786813129</v>
       </c>
       <c r="F66">
-        <v>-0.05069916139265019</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01489088091881537</v>
+      </c>
+      <c r="G66">
+        <v>0.04988290309023825</v>
+      </c>
+      <c r="H66">
+        <v>-0.07702787642754792</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02495726382919139</v>
+        <v>-0.04834858214037537</v>
       </c>
       <c r="C67">
-        <v>-0.01671387752421772</v>
+        <v>0.03213569724633258</v>
       </c>
       <c r="D67">
-        <v>0.008131870194938847</v>
+        <v>-0.01352096035377882</v>
       </c>
       <c r="E67">
-        <v>-0.0186207168564173</v>
+        <v>-0.01439950198042314</v>
       </c>
       <c r="F67">
-        <v>-0.02670213793218085</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.003692652056814304</v>
+      </c>
+      <c r="G67">
+        <v>0.01790823663633972</v>
+      </c>
+      <c r="H67">
+        <v>-0.02891422031361521</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08346161413895174</v>
+        <v>-0.2172809481834287</v>
       </c>
       <c r="C68">
-        <v>-0.03877119026028846</v>
+        <v>-0.1957166281215705</v>
       </c>
       <c r="D68">
-        <v>0.2031682217350929</v>
+        <v>0.005776844972217809</v>
       </c>
       <c r="E68">
-        <v>-0.09170432374217069</v>
+        <v>0.03774475799706613</v>
       </c>
       <c r="F68">
-        <v>-0.02991055230398975</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02594954578331138</v>
+      </c>
+      <c r="G68">
+        <v>-0.04302201650935838</v>
+      </c>
+      <c r="H68">
+        <v>0.02947702264717617</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06030040226792311</v>
+        <v>-0.05137997685970487</v>
       </c>
       <c r="C69">
-        <v>-0.02923357586832566</v>
+        <v>0.06444059812418093</v>
       </c>
       <c r="D69">
-        <v>-0.01449893633823649</v>
+        <v>-0.01878176410932795</v>
       </c>
       <c r="E69">
-        <v>0.03942761888659241</v>
+        <v>-0.02986931034961268</v>
       </c>
       <c r="F69">
-        <v>-0.01481526112135089</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.001271420699360949</v>
+      </c>
+      <c r="G69">
+        <v>0.01486280863337552</v>
+      </c>
+      <c r="H69">
+        <v>0.008001868366594212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08557223019691287</v>
+        <v>-0.1915406302278475</v>
       </c>
       <c r="C71">
-        <v>-0.04692494838144756</v>
+        <v>-0.1519072227323023</v>
       </c>
       <c r="D71">
-        <v>0.195250344982203</v>
+        <v>-0.002796512650820285</v>
       </c>
       <c r="E71">
-        <v>-0.1244744064017463</v>
+        <v>0.04241576343202701</v>
       </c>
       <c r="F71">
-        <v>-0.02944818700354227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02297824302273494</v>
+      </c>
+      <c r="G71">
+        <v>-0.04414370935032128</v>
+      </c>
+      <c r="H71">
+        <v>0.006576300350153086</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09437810915589444</v>
+        <v>-0.04936295128500465</v>
       </c>
       <c r="C72">
-        <v>-0.05655787969913605</v>
+        <v>0.1040340403721346</v>
       </c>
       <c r="D72">
-        <v>-0.07298670418359413</v>
+        <v>-0.02258502837601949</v>
       </c>
       <c r="E72">
-        <v>0.08520291454635771</v>
+        <v>-0.04141243173735674</v>
       </c>
       <c r="F72">
-        <v>-0.1350030460492199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.0248944662069761</v>
+      </c>
+      <c r="G72">
+        <v>0.06646155585124471</v>
+      </c>
+      <c r="H72">
+        <v>-0.08317132988375273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1679695909881006</v>
+        <v>-0.2917401566512607</v>
       </c>
       <c r="C73">
-        <v>-0.177833662259246</v>
+        <v>0.1599452720447638</v>
       </c>
       <c r="D73">
-        <v>-0.02226020796409097</v>
+        <v>-0.02044412391127493</v>
       </c>
       <c r="E73">
-        <v>-0.07403503998621813</v>
+        <v>-0.02582142584642685</v>
       </c>
       <c r="F73">
-        <v>-0.1729115264707777</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1512231095621857</v>
+      </c>
+      <c r="G73">
+        <v>0.1291216970742811</v>
+      </c>
+      <c r="H73">
+        <v>-0.4721048076112325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1147789970039735</v>
+        <v>-0.0883780021030915</v>
       </c>
       <c r="C74">
-        <v>-0.05811108490805837</v>
+        <v>0.1389044501981207</v>
       </c>
       <c r="D74">
-        <v>-0.03945504044464868</v>
+        <v>-0.02980208462979568</v>
       </c>
       <c r="E74">
-        <v>0.07496703182041772</v>
+        <v>-0.04848267136464834</v>
       </c>
       <c r="F74">
-        <v>0.05631098327215451</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.00570805535173712</v>
+      </c>
+      <c r="G74">
+        <v>0.008141513575943744</v>
+      </c>
+      <c r="H74">
+        <v>0.05585358328430105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2063990679122417</v>
+        <v>-0.1900579394401227</v>
       </c>
       <c r="C75">
-        <v>-0.1225157578975305</v>
+        <v>0.2330350367886208</v>
       </c>
       <c r="D75">
-        <v>-0.04239173970506915</v>
+        <v>-0.05972362324437055</v>
       </c>
       <c r="E75">
-        <v>0.197827446563475</v>
+        <v>-0.07543410503224417</v>
       </c>
       <c r="F75">
-        <v>0.07650091647049839</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.03240348269781751</v>
+      </c>
+      <c r="G75">
+        <v>0.03850536661016965</v>
+      </c>
+      <c r="H75">
+        <v>0.1829487150084549</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2498062358566948</v>
+        <v>-0.1341878626937839</v>
       </c>
       <c r="C76">
-        <v>-0.1028287934067807</v>
+        <v>0.1997308152016078</v>
       </c>
       <c r="D76">
-        <v>-0.04549644226272775</v>
+        <v>-0.0508546314518437</v>
       </c>
       <c r="E76">
-        <v>0.236256442216385</v>
+        <v>-0.09847285676672472</v>
       </c>
       <c r="F76">
-        <v>0.1565943300441954</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.007896901384901083</v>
+      </c>
+      <c r="G76">
+        <v>0.01951314461144466</v>
+      </c>
+      <c r="H76">
+        <v>0.1503003840531785</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.0919635020003983</v>
+        <v>-0.04016768670806172</v>
       </c>
       <c r="C77">
-        <v>-0.05910876621018109</v>
+        <v>0.09153555919079881</v>
       </c>
       <c r="D77">
-        <v>-0.07878877635775426</v>
+        <v>0.002661911477440404</v>
       </c>
       <c r="E77">
-        <v>-0.04896495598140478</v>
+        <v>0.02427400041339489</v>
       </c>
       <c r="F77">
-        <v>-0.09121963882525387</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01427926168718327</v>
+      </c>
+      <c r="G77">
+        <v>-0.01559437048428648</v>
+      </c>
+      <c r="H77">
+        <v>-0.01401565803123349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05025231988350264</v>
+        <v>-0.01814440520230746</v>
       </c>
       <c r="C78">
-        <v>-0.0100966487485978</v>
+        <v>0.07606822289219115</v>
       </c>
       <c r="D78">
-        <v>-0.08986259824666538</v>
+        <v>-0.001894004526311151</v>
       </c>
       <c r="E78">
-        <v>0.02716135688046163</v>
+        <v>0.0002521409541175649</v>
       </c>
       <c r="F78">
-        <v>-0.1004547074817776</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01570678805669722</v>
+      </c>
+      <c r="G78">
+        <v>0.02649173883801617</v>
+      </c>
+      <c r="H78">
+        <v>-0.08229622919519623</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.5522638831411188</v>
+        <v>-0.09153378416206051</v>
       </c>
       <c r="C80">
-        <v>0.8084548130257848</v>
+        <v>0.1233659916914358</v>
       </c>
       <c r="D80">
-        <v>-0.04049484567060441</v>
+        <v>-0.01184443281521954</v>
       </c>
       <c r="E80">
-        <v>-0.1006647158548976</v>
+        <v>-0.2108691960891597</v>
       </c>
       <c r="F80">
-        <v>-0.02906285344318229</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.9072497128034759</v>
+      </c>
+      <c r="G80">
+        <v>-0.2167769203293068</v>
+      </c>
+      <c r="H80">
+        <v>-0.1196882864239354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1657822923225886</v>
+        <v>-0.1182777102868969</v>
       </c>
       <c r="C81">
-        <v>-0.08066174952150081</v>
+        <v>0.1504719251108356</v>
       </c>
       <c r="D81">
-        <v>-0.0208085525638163</v>
+        <v>-0.03692799171969915</v>
       </c>
       <c r="E81">
-        <v>0.1511882331158475</v>
+        <v>-0.0524521811287987</v>
       </c>
       <c r="F81">
-        <v>0.06130961333190007</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.0009725924724036509</v>
+      </c>
+      <c r="G81">
+        <v>0.01802187445803892</v>
+      </c>
+      <c r="H81">
+        <v>0.1122478893441631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.002141557771842239</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0006923847285969953</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.0004626912797286972</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01197026912759787</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.00376085414926115</v>
+      </c>
+      <c r="G82">
+        <v>-0.0003584806721503788</v>
+      </c>
+      <c r="H82">
+        <v>-0.002092915499318892</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03391787079874613</v>
+        <v>-0.02168441425964623</v>
       </c>
       <c r="C83">
-        <v>-0.02292814672110434</v>
+        <v>0.02235191486940353</v>
       </c>
       <c r="D83">
-        <v>-0.02061778045198555</v>
+        <v>0.001509629835337347</v>
       </c>
       <c r="E83">
-        <v>-0.03243748552496756</v>
+        <v>0.01559149837630398</v>
       </c>
       <c r="F83">
-        <v>-0.04529028400900669</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.008148359603618194</v>
+      </c>
+      <c r="G83">
+        <v>0.0008879722942930036</v>
+      </c>
+      <c r="H83">
+        <v>-0.0415137306826729</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2253952482759486</v>
+        <v>-0.1719073906879049</v>
       </c>
       <c r="C85">
-        <v>-0.1266215305278212</v>
+        <v>0.2209176858427758</v>
       </c>
       <c r="D85">
-        <v>-0.04892081783214666</v>
+        <v>-0.04440992011117224</v>
       </c>
       <c r="E85">
-        <v>0.2078696682460044</v>
+        <v>-0.09930497495928264</v>
       </c>
       <c r="F85">
-        <v>0.1112779859896696</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.05357884450040619</v>
+      </c>
+      <c r="G85">
+        <v>0.02601352579362779</v>
+      </c>
+      <c r="H85">
+        <v>0.1254688787399657</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0004794833842588296</v>
+        <v>-0.006615188807727306</v>
       </c>
       <c r="C86">
-        <v>0.003442363336662705</v>
+        <v>0.03800420718845433</v>
       </c>
       <c r="D86">
-        <v>-0.04927588547274253</v>
+        <v>0.003926205188672778</v>
       </c>
       <c r="E86">
-        <v>0.006407155905151952</v>
+        <v>0.002529017117428055</v>
       </c>
       <c r="F86">
-        <v>-0.088402995099483</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01020609036038148</v>
+      </c>
+      <c r="G86">
+        <v>0.002481286873059914</v>
+      </c>
+      <c r="H86">
+        <v>-0.06673060468459027</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0248585980917295</v>
+        <v>7.507852169702192e-05</v>
       </c>
       <c r="C87">
-        <v>-0.007736227641345197</v>
+        <v>0.04248465648399641</v>
       </c>
       <c r="D87">
-        <v>-0.03598980827495359</v>
+        <v>0.005974015878053267</v>
       </c>
       <c r="E87">
-        <v>-0.003528281657360563</v>
+        <v>0.03742650683415004</v>
       </c>
       <c r="F87">
-        <v>-0.100942211903204</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.02685645399093113</v>
+      </c>
+      <c r="G87">
+        <v>0.0210814744183857</v>
+      </c>
+      <c r="H87">
+        <v>-0.08031993601381261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03079794867133259</v>
+        <v>-0.04278436329633623</v>
       </c>
       <c r="C88">
-        <v>-0.006166127936579202</v>
+        <v>0.02919727060552242</v>
       </c>
       <c r="D88">
-        <v>-0.000777682743696737</v>
+        <v>0.01489514396786206</v>
       </c>
       <c r="E88">
-        <v>0.01341705077393398</v>
+        <v>-0.0121217054917277</v>
       </c>
       <c r="F88">
-        <v>0.000415901219299181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01502242557593667</v>
+      </c>
+      <c r="G88">
+        <v>0.01289960562195893</v>
+      </c>
+      <c r="H88">
+        <v>0.006623784729080299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1380568843348451</v>
+        <v>-0.3374963358779736</v>
       </c>
       <c r="C89">
-        <v>-0.1029588717650962</v>
+        <v>-0.2707517850894487</v>
       </c>
       <c r="D89">
-        <v>0.3500573534082587</v>
+        <v>-0.004048628938306204</v>
       </c>
       <c r="E89">
-        <v>-0.1101602572529304</v>
+        <v>0.03130901623033891</v>
       </c>
       <c r="F89">
-        <v>-0.05056739811858955</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.005339462169571406</v>
+      </c>
+      <c r="G89">
+        <v>-0.02227533208407985</v>
+      </c>
+      <c r="H89">
+        <v>0.02527822003952009</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.109282463581279</v>
+        <v>-0.281401223843938</v>
       </c>
       <c r="C90">
-        <v>-0.0519074966669569</v>
+        <v>-0.2487835797722843</v>
       </c>
       <c r="D90">
-        <v>0.3300123476474142</v>
+        <v>-0.004570109149762775</v>
       </c>
       <c r="E90">
-        <v>-0.1126864338357193</v>
+        <v>0.0389433531768571</v>
       </c>
       <c r="F90">
-        <v>0.02037148320512615</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.02339180059731619</v>
+      </c>
+      <c r="G90">
+        <v>-0.04716776799398637</v>
+      </c>
+      <c r="H90">
+        <v>0.05794369692779251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2507790162486915</v>
+        <v>-0.1785071175379896</v>
       </c>
       <c r="C91">
-        <v>-0.1542934467506515</v>
+        <v>0.2066751738011713</v>
       </c>
       <c r="D91">
-        <v>-0.06395115971530708</v>
+        <v>-0.05442927084572721</v>
       </c>
       <c r="E91">
-        <v>0.189335588268971</v>
+        <v>-0.086292815624864</v>
       </c>
       <c r="F91">
-        <v>0.2032092831582246</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.04095843331899436</v>
+      </c>
+      <c r="G91">
+        <v>0.002854322144201055</v>
+      </c>
+      <c r="H91">
+        <v>0.1853795017241339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1690743603112275</v>
+        <v>-0.2869195365863449</v>
       </c>
       <c r="C92">
-        <v>-0.09741666792267242</v>
+        <v>-0.1743377425251521</v>
       </c>
       <c r="D92">
-        <v>0.4029974885765775</v>
+        <v>-0.05268229168776106</v>
       </c>
       <c r="E92">
-        <v>-0.02307861666439778</v>
+        <v>0.04312677603225225</v>
       </c>
       <c r="F92">
-        <v>0.1220604856367628</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.03996427124971199</v>
+      </c>
+      <c r="G92">
+        <v>-0.02007986969523049</v>
+      </c>
+      <c r="H92">
+        <v>0.1451415190925404</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1185824985544124</v>
+        <v>-0.3146565802274364</v>
       </c>
       <c r="C93">
-        <v>-0.1084800024121389</v>
+        <v>-0.2368137176588592</v>
       </c>
       <c r="D93">
-        <v>0.3749377661488411</v>
+        <v>-0.01441356871825455</v>
       </c>
       <c r="E93">
-        <v>-0.1747862183616338</v>
+        <v>0.05602913121005053</v>
       </c>
       <c r="F93">
-        <v>0.02247696226651284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01546418009778311</v>
+      </c>
+      <c r="G93">
+        <v>-0.04114801498398141</v>
+      </c>
+      <c r="H93">
+        <v>-0.001524967061937171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2660202738856674</v>
+        <v>-0.2139574299723229</v>
       </c>
       <c r="C94">
-        <v>-0.1843714484908567</v>
+        <v>0.2424281482692922</v>
       </c>
       <c r="D94">
-        <v>-0.01445234980047808</v>
+        <v>-0.04641660109843559</v>
       </c>
       <c r="E94">
-        <v>0.2723625388247177</v>
+        <v>-0.1163571676336416</v>
       </c>
       <c r="F94">
-        <v>0.07965038570806106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.08111825549364429</v>
+      </c>
+      <c r="G94">
+        <v>0.08486676591856931</v>
+      </c>
+      <c r="H94">
+        <v>0.4658916252420757</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.02854419264622818</v>
+        <v>-0.0297805207494165</v>
       </c>
       <c r="C95">
-        <v>-0.1072622121682744</v>
+        <v>0.1057264261813602</v>
       </c>
       <c r="D95">
-        <v>-0.039377394129579</v>
+        <v>-0.01780827451952499</v>
       </c>
       <c r="E95">
-        <v>0.02363875778978692</v>
+        <v>0.04409862874298733</v>
       </c>
       <c r="F95">
-        <v>-0.03110858780822247</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.07834486719463489</v>
+      </c>
+      <c r="G95">
+        <v>0.0174953744533286</v>
+      </c>
+      <c r="H95">
+        <v>-0.05900908493652184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1434262411294664</v>
+        <v>-0.184065602303223</v>
       </c>
       <c r="C98">
-        <v>-0.1214058630187797</v>
+        <v>0.07885275627800822</v>
       </c>
       <c r="D98">
-        <v>0.008741523663705703</v>
+        <v>-0.03823015392511144</v>
       </c>
       <c r="E98">
-        <v>-0.0988558528243652</v>
+        <v>0.02390336925306718</v>
       </c>
       <c r="F98">
-        <v>-0.1481416303132276</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.06738221009661985</v>
+      </c>
+      <c r="G98">
+        <v>0.04514866874593151</v>
+      </c>
+      <c r="H98">
+        <v>-0.3242063403643804</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01030690767121305</v>
+        <v>-0.004254448630451713</v>
       </c>
       <c r="C101">
-        <v>0.005199351924911408</v>
+        <v>0.02195642864142371</v>
       </c>
       <c r="D101">
-        <v>-0.02993993278178878</v>
+        <v>0.004610745762034224</v>
       </c>
       <c r="E101">
-        <v>-0.0009584911679233335</v>
+        <v>0.03058473028434515</v>
       </c>
       <c r="F101">
-        <v>-0.1864692870803752</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03440569541886974</v>
+      </c>
+      <c r="G101">
+        <v>0.02883958765755822</v>
+      </c>
+      <c r="H101">
+        <v>-0.008473628201496518</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1137851497625293</v>
+        <v>-0.09009145792543863</v>
       </c>
       <c r="C102">
-        <v>-0.06267100218853749</v>
+        <v>0.109190470646394</v>
       </c>
       <c r="D102">
-        <v>-0.02325799568693592</v>
+        <v>-0.01538666484000497</v>
       </c>
       <c r="E102">
-        <v>0.1026153060866244</v>
+        <v>-0.05428312009511741</v>
       </c>
       <c r="F102">
-        <v>0.07222261168751645</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.02434826172280574</v>
+      </c>
+      <c r="G102">
+        <v>0.01626881946751366</v>
+      </c>
+      <c r="H102">
+        <v>0.06818644877453182</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04005355701537347</v>
+        <v>-0.009329486509985156</v>
       </c>
       <c r="C103">
-        <v>-0.004869786145665269</v>
+        <v>0.01523345166064917</v>
       </c>
       <c r="D103">
-        <v>-0.01439477481352272</v>
+        <v>-0.002352011385077452</v>
       </c>
       <c r="E103">
-        <v>0.04102995435932091</v>
+        <v>-0.005089315143748433</v>
       </c>
       <c r="F103">
-        <v>-0.007042586988679686</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01477582843432153</v>
+      </c>
+      <c r="G103">
+        <v>0.002342696579366226</v>
+      </c>
+      <c r="H103">
+        <v>0.01023738661030449</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1028584309922176</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04508288792908348</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9798302075739923</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04005003639001978</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.01836173677892275</v>
+      </c>
+      <c r="G104">
+        <v>0.1104128395241339</v>
+      </c>
+      <c r="H104">
+        <v>0.05990279953655921</v>
       </c>
     </row>
   </sheetData>
